--- a/Load/src/ontology/Gates/GEMS/GEMS_terms.xlsx
+++ b/Load/src/ontology/Gates/GEMS/GEMS_terms.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1020" windowWidth="26640" windowHeight="13120" tabRatio="648"/>
+    <workbookView xWindow="0" yWindow="280" windowWidth="23380" windowHeight="13120" tabRatio="648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="terms" sheetId="29" r:id="rId1"/>
+    <sheet name="column name" sheetId="30" r:id="rId2"/>
+    <sheet name="pathogen" sheetId="31" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="32" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8288" uniqueCount="2795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9679" uniqueCount="3104">
   <si>
     <t>Version</t>
   </si>
@@ -8404,13 +8407,1178 @@
   </si>
   <si>
     <t>FRC</t>
+  </si>
+  <si>
+    <t>ENROLL_ORDER</t>
+  </si>
+  <si>
+    <t>FIRSTID</t>
+  </si>
+  <si>
+    <t>F3_NOT_GEMS</t>
+  </si>
+  <si>
+    <t>F3_CHILD_ELIG</t>
+  </si>
+  <si>
+    <t>F3_NOT_ELIG</t>
+  </si>
+  <si>
+    <t>F3_NOT_ELIG_SPEC</t>
+  </si>
+  <si>
+    <t>F4A_BREASTFED</t>
+  </si>
+  <si>
+    <t>F4B_Last_med_WHZ</t>
+  </si>
+  <si>
+    <t>F4B_Last_med_WHZ_F</t>
+  </si>
+  <si>
+    <t>F4B_Last_med_BMI</t>
+  </si>
+  <si>
+    <t>F4B_Last_med_BMIZ</t>
+  </si>
+  <si>
+    <t>F4B_Last_med_BMIZ_F</t>
+  </si>
+  <si>
+    <t>F6_ENROLL_7</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_SPP</t>
+  </si>
+  <si>
+    <t>F16CORR_S_DYSENT</t>
+  </si>
+  <si>
+    <t>F16CORR_S_FLEXNERI</t>
+  </si>
+  <si>
+    <t>F16CORR_S_BOYDII</t>
+  </si>
+  <si>
+    <t>F16CORR_S_SONNEI</t>
+  </si>
+  <si>
+    <t>F16CORR_S_NONTYPE</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_DYSENT1</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_1A</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_1B</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_2A</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_2B</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_3A</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_3B</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_4A</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_4B</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_4C</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_5A</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_5B</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_6</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_X</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_Y</t>
+  </si>
+  <si>
+    <t>F16CORR_SHIG_NONTYP</t>
+  </si>
+  <si>
+    <t>F16CORR_NONTYPABLE</t>
+  </si>
+  <si>
+    <t>F16_VIB_INABA</t>
+  </si>
+  <si>
+    <t>F16_VIB_OGAWA</t>
+  </si>
+  <si>
+    <t>F16CORR_NONEPATHOS</t>
+  </si>
+  <si>
+    <t>F16CORR_ECOLI</t>
+  </si>
+  <si>
+    <t>F17CORR_RESULT_ESTA</t>
+  </si>
+  <si>
+    <t>F17CORR_RESULT_ELTB</t>
+  </si>
+  <si>
+    <t>F17CORR_RESULT_BFPA</t>
+  </si>
+  <si>
+    <t>F17CORR_RESULT_AATA</t>
+  </si>
+  <si>
+    <t>F17CORR_RESULT_AAIC</t>
+  </si>
+  <si>
+    <t>F17CORR_RESULT_EAE</t>
+  </si>
+  <si>
+    <t>F19_TECH_SIG</t>
+  </si>
+  <si>
+    <t>F19_TECH_DATE</t>
+  </si>
+  <si>
+    <t>Study_Year</t>
+  </si>
+  <si>
+    <t>C1EAE</t>
+  </si>
+  <si>
+    <t>C1SLT1</t>
+  </si>
+  <si>
+    <t>C1SLT2</t>
+  </si>
+  <si>
+    <t>C1BFPA</t>
+  </si>
+  <si>
+    <t>C2EAE</t>
+  </si>
+  <si>
+    <t>C2SLT1</t>
+  </si>
+  <si>
+    <t>C2SLT2</t>
+  </si>
+  <si>
+    <t>C2BFPA</t>
+  </si>
+  <si>
+    <t>ETEC_ALL</t>
+  </si>
+  <si>
+    <t>ETEC_anyST</t>
+  </si>
+  <si>
+    <t>ETEC_LTST</t>
+  </si>
+  <si>
+    <t>ETEC_STonly</t>
+  </si>
+  <si>
+    <t>ETEC_LTonly</t>
+  </si>
+  <si>
+    <t>EAEC</t>
+  </si>
+  <si>
+    <t>EAEC_TAonly</t>
+  </si>
+  <si>
+    <t>EAEC_IConly</t>
+  </si>
+  <si>
+    <t>EAEC_TAIC</t>
+  </si>
+  <si>
+    <t>Shig_flex</t>
+  </si>
+  <si>
+    <t>Shig_sonnei</t>
+  </si>
+  <si>
+    <t>Shig_Dysent</t>
+  </si>
+  <si>
+    <t>Shig_Boydii</t>
+  </si>
+  <si>
+    <t>NOROVirus</t>
+  </si>
+  <si>
+    <t>ADENO_4041</t>
+  </si>
+  <si>
+    <t>ADENO_non4041</t>
+  </si>
+  <si>
+    <t>VIB_O1</t>
+  </si>
+  <si>
+    <t>VIB_O1INABA</t>
+  </si>
+  <si>
+    <t>VIB_O1OGAWA</t>
+  </si>
+  <si>
+    <t>VIB_O139</t>
+  </si>
+  <si>
+    <t>Campy</t>
+  </si>
+  <si>
+    <t>tEPEC</t>
+  </si>
+  <si>
+    <t>aEPEC</t>
+  </si>
+  <si>
+    <t>EHEC</t>
+  </si>
+  <si>
+    <t>STEC</t>
+  </si>
+  <si>
+    <t>EAE</t>
+  </si>
+  <si>
+    <t>F16_SHIG_7A</t>
+  </si>
+  <si>
+    <t>ENR_MON</t>
+  </si>
+  <si>
+    <t>ENR_YR</t>
+  </si>
+  <si>
+    <t>pn1</t>
+  </si>
+  <si>
+    <t>pn2</t>
+  </si>
+  <si>
+    <t>pn3</t>
+  </si>
+  <si>
+    <t>pn4</t>
+  </si>
+  <si>
+    <t>pn5</t>
+  </si>
+  <si>
+    <t>pn6</t>
+  </si>
+  <si>
+    <t>pn7</t>
+  </si>
+  <si>
+    <t>pn8</t>
+  </si>
+  <si>
+    <t>pn9</t>
+  </si>
+  <si>
+    <t>tEPEC_bfpA_gems1</t>
+  </si>
+  <si>
+    <t>eae_bfpA</t>
+  </si>
+  <si>
+    <t>pn11</t>
+  </si>
+  <si>
+    <t>bfpA_only</t>
+  </si>
+  <si>
+    <t>pn12</t>
+  </si>
+  <si>
+    <t>EAEpos_bfpAneg</t>
+  </si>
+  <si>
+    <t>pn13</t>
+  </si>
+  <si>
+    <t>Shig_Toxin</t>
+  </si>
+  <si>
+    <t>pn14</t>
+  </si>
+  <si>
+    <t>aEPEC_GEMS1</t>
+  </si>
+  <si>
+    <t>EHEC_GEMS1</t>
+  </si>
+  <si>
+    <t>pn17</t>
+  </si>
+  <si>
+    <t>pn18</t>
+  </si>
+  <si>
+    <t>pn19</t>
+  </si>
+  <si>
+    <t>pn20</t>
+  </si>
+  <si>
+    <t>pn21</t>
+  </si>
+  <si>
+    <t>pn22</t>
+  </si>
+  <si>
+    <t>pn23</t>
+  </si>
+  <si>
+    <t>pn24</t>
+  </si>
+  <si>
+    <t>pn25</t>
+  </si>
+  <si>
+    <t>pn26</t>
+  </si>
+  <si>
+    <t>pn27</t>
+  </si>
+  <si>
+    <t>pn28</t>
+  </si>
+  <si>
+    <t>pn29</t>
+  </si>
+  <si>
+    <t>pn30</t>
+  </si>
+  <si>
+    <t>pn31</t>
+  </si>
+  <si>
+    <t>pn32</t>
+  </si>
+  <si>
+    <t>pn33</t>
+  </si>
+  <si>
+    <t>pn34</t>
+  </si>
+  <si>
+    <t>pn35</t>
+  </si>
+  <si>
+    <t>pn36</t>
+  </si>
+  <si>
+    <t>pn37</t>
+  </si>
+  <si>
+    <t>pn38</t>
+  </si>
+  <si>
+    <t>pn39</t>
+  </si>
+  <si>
+    <t>pn40</t>
+  </si>
+  <si>
+    <t>pn41</t>
+  </si>
+  <si>
+    <t>pn42</t>
+  </si>
+  <si>
+    <t>tEPEC_bfpA_Roy1</t>
+  </si>
+  <si>
+    <t>tEPEC_bfpA_Roy2</t>
+  </si>
+  <si>
+    <t>aEPEC_Roy1</t>
+  </si>
+  <si>
+    <t>aEPEC_Roy2</t>
+  </si>
+  <si>
+    <t>EHEC_Roy1</t>
+  </si>
+  <si>
+    <t>EHEC_Roy2</t>
+  </si>
+  <si>
+    <t>stec_GEMS1</t>
+  </si>
+  <si>
+    <t>stec_c1</t>
+  </si>
+  <si>
+    <t>stec_c2</t>
+  </si>
+  <si>
+    <t>pn10</t>
+  </si>
+  <si>
+    <t>pn15</t>
+  </si>
+  <si>
+    <t>pn16</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_SPP</t>
+  </si>
+  <si>
+    <t>F16CRF_S_DYSENT</t>
+  </si>
+  <si>
+    <t>F16CRF_S_FLEXNERI</t>
+  </si>
+  <si>
+    <t>F16CRF_S_BOYDII</t>
+  </si>
+  <si>
+    <t>F16CRF_S_SONNEI</t>
+  </si>
+  <si>
+    <t>F16CRF_S_NONTYPE</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_DYSENT1</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_1A</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_1B</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_2A</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_2B</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_3A</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_3B</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_4A</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_4B</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_4C</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_5A</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_5B</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_6</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_X</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_Y</t>
+  </si>
+  <si>
+    <t>F16CRF_SHIG_NONTYP</t>
+  </si>
+  <si>
+    <t>F16CRF_NONTYPABLE</t>
+  </si>
+  <si>
+    <t>F16CRF_NONEPATHOS</t>
+  </si>
+  <si>
+    <t>F16CRF_ECOLI</t>
+  </si>
+  <si>
+    <t>F17CRF_RESULT_ESTA</t>
+  </si>
+  <si>
+    <t>F17CRF_RESULT_ELTB</t>
+  </si>
+  <si>
+    <t>F17CRF_RESULT_BFPA</t>
+  </si>
+  <si>
+    <t>F17CRF_RESULT_AATA</t>
+  </si>
+  <si>
+    <t>F17CRF_RESULT_AAIC</t>
+  </si>
+  <si>
+    <t>F17CRF_RESULT_EAE</t>
+  </si>
+  <si>
+    <t>base_age</t>
+  </si>
+  <si>
+    <t>agegroup</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>GEMS1_Case_control_Study_data.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETEC LT and ST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETEC ST only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAEC AATA only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAEC AAIC only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAEC AATA and AAIC </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vibrio cholerae </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O1 Inaba </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vibrio cholerae </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O1 Ogawa </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campylobacter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, any </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pn39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrovirus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapovirus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETEC, any </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST-producing ETEC (ST only or LTST) </t>
+  </si>
+  <si>
+    <t>GEMS-1 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETEC LT only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAEC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical EPEC (tEPEC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAE and BFPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAE positive, BFPA negative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiga toxin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atypical EPEC (aEPEC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHEC (EAE positive, stx positive) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigella flexneri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigella boydii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norovirus, any (GI or GII) </t>
+  </si>
+  <si>
+    <t>Pn26</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pn29 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrio cholerae O1 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pn32 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrio cholerae O139 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmonella typhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-typhoidal salmonella </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cryptosporidium </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giardia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entamoeba histolytica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campylobacter, any </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campylobacter jejuni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campylobacter coli </t>
+  </si>
+  <si>
+    <t>Pathogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathogen number name </t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>order#</t>
+  </si>
+  <si>
+    <t>Pathogen number pn1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn3 pn4 pn5 pn6 pn7 pn8 pn9 pn10 pn11 pn12 pn13 pn14 pn15 pn16 pn17 pn18 pn19 pn20 pn21 pn21a2 pn22 pn23 pn24 pn25 pn26 pn27 pn28 pn512 pn29 pn32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following is a table of the pn variables in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEMS-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a total of 52 pathogens): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathogen name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFPA only </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shigella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">any </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shigella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">flexneri </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shigella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sonnei </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shigella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dysenteriae </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shigella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">boydii </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shigella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">with non-typeable serogroup </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotavirus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeromonas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norovirus_any (GI+GII) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norovirus_GI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norovirus_GII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenovirus_4041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenovirus_non4041 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vibrio cholerae </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O1 or O139 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vibrio cholerae </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O1 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vibrio cholerae </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O139 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Non-typhoidal </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">salmonella </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pn35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptosporidium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giardia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entamoeba histolytica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helicobacter pylori </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn442 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clostridium difficile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">no toxin </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pn452 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clostridium difficile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">toxin </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pn462 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Clostridium difficile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">but toxin </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pn472 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascaris lumbricoides </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn482 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongyloides stercoralis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn492 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hookworm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn502 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Toxin positive </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bacteroides fragilis </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pn612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDH positive, toxin negative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn622 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDH negative, toxin positive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigella any </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigella sonnei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigella dysenteriae </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pn21a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norovirus, GI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norovirus, GII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenovirus 4041 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenovirus non-4041 </t>
+  </si>
+  <si>
+    <t>GEMS-1A only</t>
+  </si>
+  <si>
+    <t>pn51</t>
+  </si>
+  <si>
+    <t>pn43</t>
+  </si>
+  <si>
+    <t>pn44</t>
+  </si>
+  <si>
+    <t>pn45</t>
+  </si>
+  <si>
+    <t>pn46</t>
+  </si>
+  <si>
+    <t>pn47</t>
+  </si>
+  <si>
+    <t>pn48</t>
+  </si>
+  <si>
+    <t>pn49</t>
+  </si>
+  <si>
+    <t>pn50</t>
+  </si>
+  <si>
+    <t>pn61</t>
+  </si>
+  <si>
+    <t>pn62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8611,8 +9779,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8792,8 +9967,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -8908,8 +10101,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="445">
+  <cellStyleXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -9355,8 +10637,43 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9389,8 +10706,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="445">
+  <cellStyles count="480">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="25" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="29" builtinId="38" customBuiltin="1"/>
@@ -9625,6 +11014,41 @@
     <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="5" builtinId="17" customBuiltin="1"/>
@@ -10181,8 +11605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -52163,4 +53587,7198 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1148"/>
+  <sheetViews>
+    <sheetView topLeftCell="A1074" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A1076" sqref="A1076"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1">
+      <c r="A1022" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1">
+      <c r="A1035" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1">
+      <c r="A1040" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1">
+      <c r="A1042" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1">
+      <c r="A1045" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1">
+      <c r="A1046" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1">
+      <c r="A1047" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1">
+      <c r="A1050" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1">
+      <c r="A1052" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1">
+      <c r="A1054" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1">
+      <c r="A1055" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1">
+      <c r="A1056" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1">
+      <c r="A1057" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1">
+      <c r="A1060" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1">
+      <c r="A1062" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1">
+      <c r="A1064" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1">
+      <c r="A1065" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1">
+      <c r="A1066" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1">
+      <c r="A1067" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1">
+      <c r="A1068" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1">
+      <c r="A1069" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1">
+      <c r="A1070" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1">
+      <c r="A1072" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1">
+      <c r="A1073" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1">
+      <c r="A1074" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1">
+      <c r="A1075" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1">
+      <c r="A1076" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1">
+      <c r="A1077" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1">
+      <c r="A1078" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1">
+      <c r="A1079" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1">
+      <c r="A1080" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1">
+      <c r="A1081" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1">
+      <c r="A1082" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1">
+      <c r="A1083" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1">
+      <c r="A1084" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1">
+      <c r="A1085" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1">
+      <c r="A1086" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1">
+      <c r="A1087" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1">
+      <c r="A1088" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1">
+      <c r="A1089" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1">
+      <c r="A1090" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1">
+      <c r="A1091" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1">
+      <c r="A1092" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1">
+      <c r="A1093" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1">
+      <c r="A1094" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1">
+      <c r="A1095" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1">
+      <c r="A1096" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1">
+      <c r="A1097" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1">
+      <c r="A1098" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1">
+      <c r="A1100" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1">
+      <c r="A1101" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1">
+      <c r="A1102" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1">
+      <c r="A1103" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1">
+      <c r="A1104" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1">
+      <c r="A1105" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1">
+      <c r="A1106" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1">
+      <c r="A1107" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1">
+      <c r="A1108" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1">
+      <c r="A1109" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1">
+      <c r="A1110" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1">
+      <c r="A1111" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1">
+      <c r="A1112" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1">
+      <c r="A1113" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1">
+      <c r="A1114" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1">
+      <c r="A1115" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1">
+      <c r="A1116" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1">
+      <c r="A1117" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1">
+      <c r="A1118" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1">
+      <c r="A1119" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1">
+      <c r="A1120" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1">
+      <c r="A1121" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1">
+      <c r="A1122" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1">
+      <c r="A1123" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1">
+      <c r="A1124" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1">
+      <c r="A1125" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1">
+      <c r="A1126" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1">
+      <c r="A1127" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1">
+      <c r="A1128" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1">
+      <c r="A1129" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1">
+      <c r="A1130" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1">
+      <c r="A1131" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1">
+      <c r="A1132" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1">
+      <c r="A1133" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1">
+      <c r="A1134" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1">
+      <c r="A1135" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1">
+      <c r="A1136" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1">
+      <c r="A1137" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1">
+      <c r="A1138" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1">
+      <c r="A1139" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1">
+      <c r="A1140" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1">
+      <c r="A1141" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1">
+      <c r="A1142" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1">
+      <c r="A1143" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1">
+      <c r="A1144" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1">
+      <c r="A1145" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1">
+      <c r="A1146" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1">
+      <c r="A1147" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1">
+      <c r="A1148" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="14" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="14" customHeight="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" customHeight="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="14" customHeight="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="14" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" ht="14" customHeight="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" ht="14" customHeight="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" ht="14" customHeight="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" ht="14" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" ht="14" customHeight="1">
+      <c r="A23">
+        <v>21.2</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" ht="14" customHeight="1">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" ht="14" customHeight="1">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" ht="14" customHeight="1">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" ht="14" customHeight="1">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" ht="14" customHeight="1">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" customHeight="1">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" ht="14" customHeight="1">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" ht="14" customHeight="1">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" ht="14" customHeight="1">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" ht="14" customHeight="1">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" ht="14" customHeight="1">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14" customHeight="1">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" ht="14" customHeight="1">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14" customHeight="1">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14" customHeight="1">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14" customHeight="1">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" ht="14" customHeight="1">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" ht="14" customHeight="1">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" ht="14" customHeight="1">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" ht="14" customHeight="1">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="2:3" ht="14" customHeight="1">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+    </row>
+    <row r="67" spans="2:3" ht="28" customHeight="1">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+    </row>
+    <row r="69" spans="2:3" ht="28" customHeight="1">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+    </row>
+    <row r="71" spans="2:3" ht="14" customHeight="1">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="2:3" ht="14" customHeight="1">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="2:3" ht="14" customHeight="1">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+    </row>
+    <row r="77" spans="2:3" ht="14" customHeight="1">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="2:3" ht="14" customHeight="1">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="2:3" ht="14" customHeight="1">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+    </row>
+    <row r="80" spans="2:3" ht="14" customHeight="1">
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="2:4" ht="14" customHeight="1">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="2:4" ht="14" customHeight="1">
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+    </row>
+    <row r="88" spans="2:4" ht="14" customHeight="1"/>
+    <row r="89" spans="2:4">
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="22"/>
+    </row>
+    <row r="90" spans="2:4" ht="14" customHeight="1">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="22"/>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D87">
+    <sortCondition ref="B2:B87"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="A10:B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickTop="1">
+      <c r="B8" s="27" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickTop="1">
+      <c r="A10" s="19" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" customHeight="1">
+      <c r="A16" s="19" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="19" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="19" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" customHeight="1">
+      <c r="A24" s="19" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28" customHeight="1">
+      <c r="A25" s="19" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14" customHeight="1">
+      <c r="A27" s="19" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14" customHeight="1">
+      <c r="A28" s="19" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14" customHeight="1">
+      <c r="A29" s="19" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14" customHeight="1">
+      <c r="A30" s="19" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28" customHeight="1">
+      <c r="A31" s="19" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="19" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14" customHeight="1">
+      <c r="A34" s="19" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="19" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14" customHeight="1">
+      <c r="A36" s="19" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14" customHeight="1">
+      <c r="A37" s="19" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28" customHeight="1">
+      <c r="A39" s="19" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14" customHeight="1">
+      <c r="A40" s="19" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28" customHeight="1">
+      <c r="A41" s="19" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28" customHeight="1">
+      <c r="A43" s="16" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="15" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14" customHeight="1">
+      <c r="A45" s="16" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="15" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="16" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="15" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14" customHeight="1">
+      <c r="A49" s="16" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="15" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14" customHeight="1">
+      <c r="A51" s="16" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="15" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14" customHeight="1">
+      <c r="A53" s="16" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="15" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14" customHeight="1">
+      <c r="A55" s="16" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="15" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="16" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="15" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="16" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="15" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14" customHeight="1">
+      <c r="A61" s="16" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="1:2" ht="28" customHeight="1">
+      <c r="A63" s="16"/>
+      <c r="B63" s="33"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="15"/>
+      <c r="B64" s="37"/>
+    </row>
+    <row r="65" spans="1:2" ht="14" customHeight="1">
+      <c r="A65" s="16"/>
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="15"/>
+      <c r="B66" s="37"/>
+    </row>
+    <row r="67" spans="1:2" ht="42" customHeight="1">
+      <c r="A67" s="16"/>
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="37"/>
+    </row>
+    <row r="69" spans="1:2" ht="14" customHeight="1">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="15"/>
+      <c r="B70" s="34"/>
+    </row>
+    <row r="71" spans="1:2" ht="14" customHeight="1">
+      <c r="A71" s="16"/>
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="15"/>
+      <c r="B72" s="37"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" spans="1:2" ht="42" customHeight="1">
+      <c r="A75" s="16"/>
+      <c r="B75" s="33"/>
+    </row>
+    <row r="76" spans="1:2" ht="42" customHeight="1">
+      <c r="A76" s="16"/>
+      <c r="B76" s="33"/>
+    </row>
+    <row r="77" spans="1:2" ht="42" customHeight="1">
+      <c r="A77" s="16"/>
+      <c r="B77" s="35"/>
+    </row>
+  </sheetData>
+  <sortState ref="A43:B98">
+    <sortCondition ref="A43:A98"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>